--- a/not_test_2.xlsx
+++ b/not_test_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\PycharmProjects\CSV_Creator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202077FA-1873-4E8C-B77C-CAF8AA2B95A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D492A7-1657-4CD9-BA0E-66F785912DD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22680" yWindow="1065" windowWidth="15375" windowHeight="7875" activeTab="2" xr2:uid="{5A818129-C0ED-4067-B196-02EC27236BB1}"/>
+    <workbookView xWindow="21510" yWindow="5550" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{5A818129-C0ED-4067-B196-02EC27236BB1}"/>
   </bookViews>
   <sheets>
     <sheet name="not_tested" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="31">
   <si>
     <t>null</t>
   </si>
@@ -124,10 +124,10 @@
     <t>T/N</t>
   </si>
   <si>
-    <t>To testing</t>
-  </si>
-  <si>
-    <t>No testing</t>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -710,10 +710,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D4D6B0-F5AD-4A3C-9FDC-0DD7676B0FCA}">
-  <dimension ref="C1:D21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C1:C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,169 +721,295 @@
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
       <c r="D2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
       <c r="D3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
       <c r="D4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
       <c r="D8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
       <c r="D9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
       <c r="D12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
       <c r="D13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
       <c r="D14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>17</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
       <c r="D17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
       <c r="D18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>21</v>
       </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
       <c r="D19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>22</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
       </c>
       <c r="D20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>23</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
@@ -896,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA5E3B1-D2AE-42F9-B566-EE3156FD5720}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,7 +1043,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -925,151 +1051,279 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>23</v>
       </c>
-      <c r="D21" t="s">
-        <v>29</v>
+      <c r="D37" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
